--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA221F7-F0B1-4409-8053-CFFCF31AFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -15,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
   <si>
     <t>Datei</t>
   </si>
   <si>
     <t>Programmierer/-in</t>
-  </si>
-  <si>
-    <t>Projektthema:</t>
   </si>
   <si>
     <t>Ausfüllhinweise</t>
@@ -109,12 +107,153 @@
   <si>
     <t>Stand: XX.XX.2025</t>
   </si>
+  <si>
+    <t>run.bat</t>
+  </si>
+  <si>
+    <t>adalfarus</t>
+  </si>
+  <si>
+    <t>src\config.py</t>
+  </si>
+  <si>
+    <t>src\dc\storage.py</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>inline 100%</t>
+  </si>
+  <si>
+    <t>src\main.py</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Added base</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>inline 5%</t>
+  </si>
+  <si>
+    <t>Fixed a few mistakes</t>
+  </si>
+  <si>
+    <t>Projektthema: Automaten</t>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>comments 5%</t>
+  </si>
+  <si>
+    <t>Made some smaller ...</t>
+  </si>
+  <si>
+    <t>MyItem cls</t>
+  </si>
+  <si>
+    <t>changes to GridView cls</t>
+  </si>
+  <si>
+    <t>rough idea on how a ...</t>
+  </si>
+  <si>
+    <t>Giesbrt</t>
+  </si>
+  <si>
+    <t>_tmp\finit...</t>
+  </si>
+  <si>
+    <t>_tmp\state...</t>
+  </si>
+  <si>
+    <t>_tmp\trans...</t>
+  </si>
+  <si>
+    <t>_tmp\utils.py</t>
+  </si>
+  <si>
+    <t>added base struc...</t>
+  </si>
+  <si>
+    <t>src\dc\automaton.py</t>
+  </si>
+  <si>
+    <t>src\dc\state.py</t>
+  </si>
+  <si>
+    <t>src\dc\transition.py</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>Design macht es 2</t>
+  </si>
+  <si>
+    <t>added base impl...</t>
+  </si>
+  <si>
+    <t>src\dc\DFAAutomaton.py</t>
+  </si>
+  <si>
+    <t>src\dc\DFAState.py</t>
+  </si>
+  <si>
+    <t>src\dc\DFATransition.py</t>
+  </si>
+  <si>
+    <t>src\dc\DFAUnitTest.py</t>
+  </si>
+  <si>
+    <t>updated file doc...</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>change docs</t>
+  </si>
+  <si>
+    <t>Update main.py</t>
+  </si>
+  <si>
+    <t>remove buggy &amp; unneeded</t>
+  </si>
+  <si>
+    <t>Refactored the proj...</t>
+  </si>
+  <si>
+    <t>build.py</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>run.ps1</t>
+  </si>
+  <si>
+    <t>comments 100%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +285,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,15 +443,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,14 +468,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -347,9 +498,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +538,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,6 +573,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -457,9 +625,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,537 +817,1020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9">
+        <v>62</v>
+      </c>
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="F4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9">
+        <v>70</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18">
+        <v>374</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18">
+        <v>16</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18">
+        <v>32</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="18">
+        <v>70</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18">
+        <v>23</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="18">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="18">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="18">
+        <v>25</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="9">
+        <v>58</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="9">
+        <v>17</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="9">
+        <v>14</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9">
+        <v>32</v>
+      </c>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="18">
+        <v>-20</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="18">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="diff-de34b31f2f5b611f824ebc1e2b8805b0c6047f5991059794dbc665cb75738572R3" xr:uid="{EECF93C3-23E3-4566-998C-4C214829336D}"/>
+    <hyperlink ref="A7" r:id="rId2" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{3252FA97-82AC-49E4-AF3C-98DDFC2AF961}"/>
+    <hyperlink ref="A9" r:id="rId3" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" display="Made some smaller changes to the gridview" xr:uid="{21D444DC-CDF5-4FE1-B2F9-07BCB7B41B9D}"/>
+    <hyperlink ref="A11" r:id="rId4" location="diff-1f206686c3054ef191a0af5efce624f9735343a9c995897b295caf9a09566047" xr:uid="{98A75F3B-00A0-4496-93C0-015A4227A5BC}"/>
+    <hyperlink ref="A15" r:id="rId5" location="diff-ebfe5d91a7a5c94f406db01dcfd918df96920666147aead9424f7485600974ce" display="added base structure for ..." xr:uid="{5AD29428-3A88-404C-84DD-A5BF231F077B}"/>
+    <hyperlink ref="A18" r:id="rId6" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{3FD03B5C-1B54-4F98-A19D-D6730FC152A9}"/>
+    <hyperlink ref="A22" r:id="rId7" location="diff-c7cae56b122b1279c1580d7603c1f10ceca6ba3e677310ecf9ece20f250a555f" xr:uid="{81F89C16-0E5C-4949-8A21-59CD9C6E28B3}"/>
+    <hyperlink ref="A28" r:id="rId8" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{128BC125-D931-4B98-975F-FA8F5618BD0B}"/>
+    <hyperlink ref="A29" r:id="rId9" location="diff-b335630551682c19a781afebcf4d07bf978fb1f8ac04c6bf87428ed5106870f5" xr:uid="{FE4659F6-2970-4238-B391-D93626E91E4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1173,52 +1841,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA221F7-F0B1-4409-8053-CFFCF31AFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB59F1E-906C-4448-A436-AF144543F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
   <si>
     <t>Datei</t>
   </si>
@@ -247,6 +247,18 @@
   </si>
   <si>
     <t>comments 100%</t>
+  </si>
+  <si>
+    <t>Smaller changes</t>
+  </si>
+  <si>
+    <t>compile.bat</t>
+  </si>
+  <si>
+    <t>pyautoinst-config.json</t>
+  </si>
+  <si>
+    <t>Had some edge cases</t>
   </si>
 </sst>
 </file>
@@ -471,14 +483,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -820,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,12 +849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14" t="s">
         <v>15</v>
@@ -875,7 +887,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -913,7 +925,7 @@
       <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -953,13 +965,13 @@
       <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>374</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -967,7 +979,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -976,13 +988,13 @@
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -999,13 +1011,13 @@
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -1013,7 +1025,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1022,13 +1034,13 @@
       <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>16</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1045,13 +1057,13 @@
       <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>32</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -1059,7 +1071,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1068,13 +1080,13 @@
       <c r="C11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>70</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -1091,13 +1103,13 @@
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>23</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -1114,13 +1126,13 @@
       <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>11</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -1137,13 +1149,13 @@
       <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>6</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -1151,7 +1163,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1163,7 +1175,7 @@
       <c r="D15" s="9">
         <v>32</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
       <c r="F15" t="s">
@@ -1172,7 +1184,7 @@
       <c r="G15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1186,10 +1198,10 @@
       <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>23</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
@@ -1198,7 +1210,7 @@
       <c r="G16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1212,10 +1224,10 @@
       <c r="C17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>25</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>2</v>
       </c>
       <c r="F17" t="s">
@@ -1224,12 +1236,12 @@
       <c r="G17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1241,10 +1253,10 @@
       <c r="D18" s="9">
         <v>58</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>2</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -1264,7 +1276,7 @@
       <c r="D19" s="9">
         <v>17</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>2</v>
       </c>
       <c r="F19" t="s">
@@ -1287,10 +1299,10 @@
       <c r="D20" s="9">
         <v>14</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="10" t="s">
@@ -1310,10 +1322,10 @@
       <c r="D21" s="9">
         <v>32</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="10" t="s">
@@ -1321,19 +1333,19 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -1350,13 +1362,13 @@
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -1373,13 +1385,13 @@
       <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <v>0</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -1396,13 +1408,13 @@
       <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -1419,13 +1431,13 @@
       <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -1442,13 +1454,13 @@
       <c r="B27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -1459,22 +1471,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>-20</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -1482,19 +1494,19 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <v>0</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <v>1</v>
       </c>
       <c r="F29" t="s">
@@ -1511,16 +1523,16 @@
       <c r="B30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>6</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -1528,18 +1540,53 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="16">
+        <v>9</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="G32" s="10"/>
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -1823,9 +1870,10 @@
     <hyperlink ref="A22" r:id="rId7" location="diff-c7cae56b122b1279c1580d7603c1f10ceca6ba3e677310ecf9ece20f250a555f" xr:uid="{81F89C16-0E5C-4949-8A21-59CD9C6E28B3}"/>
     <hyperlink ref="A28" r:id="rId8" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{128BC125-D931-4B98-975F-FA8F5618BD0B}"/>
     <hyperlink ref="A29" r:id="rId9" location="diff-b335630551682c19a781afebcf4d07bf978fb1f8ac04c6bf87428ed5106870f5" xr:uid="{FE4659F6-2970-4238-B391-D93626E91E4D}"/>
+    <hyperlink ref="A31" r:id="rId10" xr:uid="{B6E8F3A1-0F2B-4FDE-AFD9-F584E89B35BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB59F1E-906C-4448-A436-AF144543F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4DADA-205C-42D0-BD2A-E33354CF591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>Datei</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Had some edge cases</t>
+  </si>
+  <si>
+    <t>5 commits</t>
+  </si>
+  <si>
+    <t>multiple files</t>
+  </si>
+  <si>
+    <t>smaller updates</t>
   </si>
 </sst>
 </file>
@@ -832,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,112 +1597,128 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="16">
+        <v>56</v>
+      </c>
+      <c r="E33" s="16">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF4DADA-205C-42D0-BD2A-E33354CF591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50CEC51-3071-4AB7-AFE6-127C294018FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t>Datei</t>
   </si>
@@ -268,6 +268,39 @@
   </si>
   <si>
     <t>smaller updates</t>
+  </si>
+  <si>
+    <t>Many smaller commits</t>
+  </si>
+  <si>
+    <t>SIDEBAR</t>
+  </si>
+  <si>
+    <t>src\dc\gui.py</t>
+  </si>
+  <si>
+    <t>sidebar code</t>
+  </si>
+  <si>
+    <t>moved auto...</t>
+  </si>
+  <si>
+    <t>_positionManager.py (temp)</t>
+  </si>
+  <si>
+    <t>added docs</t>
+  </si>
+  <si>
+    <t>Added runtime ...</t>
+  </si>
+  <si>
+    <t>runtime checks</t>
+  </si>
+  <si>
+    <t>src\dc\auto_automaten.py (temp)</t>
+  </si>
+  <si>
+    <t>moved sidebar to the left</t>
   </si>
 </sst>
 </file>
@@ -841,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,53 +1654,165 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="G34" s="10"/>
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="16">
+        <v>6</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="16">
+        <v>43</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="16">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16">
+        <v>1</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="16">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16">
+        <v>2</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="9">
+        <v>48</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="16">
+        <v>17</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
@@ -1896,9 +2041,13 @@
     <hyperlink ref="A28" r:id="rId8" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{128BC125-D931-4B98-975F-FA8F5618BD0B}"/>
     <hyperlink ref="A29" r:id="rId9" location="diff-b335630551682c19a781afebcf4d07bf978fb1f8ac04c6bf87428ed5106870f5" xr:uid="{FE4659F6-2970-4238-B391-D93626E91E4D}"/>
     <hyperlink ref="A31" r:id="rId10" xr:uid="{B6E8F3A1-0F2B-4FDE-AFD9-F584E89B35BA}"/>
+    <hyperlink ref="A35" r:id="rId11" location="diff-4b4e5aedbbb65e605b71eff795aafee2e1363ff7b02ea1110d0c29f73854ef9b" xr:uid="{64A0F175-749C-4956-BD49-A9B0A6C87013}"/>
+    <hyperlink ref="A36" r:id="rId12" location="diff-8c86fe1dccd9fa33874649ecdb94b100ba17b9a344f0b64b343c93565a1d1b61" xr:uid="{55C9BCC4-9D86-4C8E-A405-C75CBCA37978}"/>
+    <hyperlink ref="A37" r:id="rId13" location="diff-8c86fe1dccd9fa33874649ecdb94b100ba17b9a344f0b64b343c93565a1d1b61" xr:uid="{258E7277-F4C4-47A0-9C41-C8812B495DAF}"/>
+    <hyperlink ref="A38" r:id="rId14" location="diff-24a3fe5c783755412cb9de83238b4dfd0699345bf50dcadc3ec23c6749361592" xr:uid="{BFD3B569-D5C6-422C-84E1-7F4AA8A68744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50CEC51-3071-4AB7-AFE6-127C294018FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11550FF4-3197-42B7-B632-E6059383E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28065" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>Datei</t>
   </si>
@@ -301,6 +301,42 @@
   </si>
   <si>
     <t>moved sidebar to the left</t>
+  </si>
+  <si>
+    <t>implemented proper file ...</t>
+  </si>
+  <si>
+    <t>implemented basic seri...</t>
+  </si>
+  <si>
+    <t>src\dc\displayManager (temp)</t>
+  </si>
+  <si>
+    <t>renamed Position...</t>
+  </si>
+  <si>
+    <t>setter</t>
+  </si>
+  <si>
+    <t>src\dc\core\modules\state.py</t>
+  </si>
+  <si>
+    <t>added getter ...</t>
+  </si>
+  <si>
+    <t>src\dc\core\dfa\DFAstate.py</t>
+  </si>
+  <si>
+    <t>added serialisation ...</t>
+  </si>
+  <si>
+    <t>updated serialisation ...</t>
+  </si>
+  <si>
+    <t>changed to pickle</t>
+  </si>
+  <si>
+    <t>src\dc\serializer.py (temp)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -527,6 +563,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -875,7 +913,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,12 +929,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14" t="s">
         <v>15</v>
@@ -1815,39 +1853,116 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="16">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="16">
+        <v>4</v>
+      </c>
+      <c r="E42" s="16">
+        <v>1</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="9">
+        <v>24</v>
+      </c>
+      <c r="E43" s="16">
+        <v>2</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="16">
+        <v>51</v>
+      </c>
+      <c r="E44" s="16">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="G45" s="10"/>
+      <c r="B45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="9">
+        <v>151</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -2045,9 +2160,13 @@
     <hyperlink ref="A36" r:id="rId12" location="diff-8c86fe1dccd9fa33874649ecdb94b100ba17b9a344f0b64b343c93565a1d1b61" xr:uid="{55C9BCC4-9D86-4C8E-A405-C75CBCA37978}"/>
     <hyperlink ref="A37" r:id="rId13" location="diff-8c86fe1dccd9fa33874649ecdb94b100ba17b9a344f0b64b343c93565a1d1b61" xr:uid="{258E7277-F4C4-47A0-9C41-C8812B495DAF}"/>
     <hyperlink ref="A38" r:id="rId14" location="diff-24a3fe5c783755412cb9de83238b4dfd0699345bf50dcadc3ec23c6749361592" xr:uid="{BFD3B569-D5C6-422C-84E1-7F4AA8A68744}"/>
+    <hyperlink ref="A41" r:id="rId15" location="diff-3d2678f49f03c05fe20e8802e3516e3d8c9dd5bce813e0845552a9d793e7593d" xr:uid="{123DAC12-35F9-4441-81E3-D6B431C3BF80}"/>
+    <hyperlink ref="A42" r:id="rId16" location="diff-7193f7df8c6f35c6f42d6f9db6deb3bf3d1a1000927552b84c901eca5b9b37e0" xr:uid="{D797A1C0-AD1D-44EC-9523-DCE63CBC652C}"/>
+    <hyperlink ref="A43" r:id="rId17" location="diff-40c55730b9514e3da9867e2fbb856d7a9506c78cedd35f9c83955a83340286ad" xr:uid="{CFBAD435-50E3-49D4-9579-5F6E11506405}"/>
+    <hyperlink ref="A44" r:id="rId18" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{8EBCA02C-10BC-423A-B06E-3F3D019D27BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11550FF4-3197-42B7-B632-E6059383E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D26D19-91A8-47D9-AC70-6C8F432A6EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28065" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>Datei</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>src\dc\serializer.py (temp)</t>
+  </si>
+  <si>
+    <t>Implemented DCGNode ...</t>
   </si>
 </sst>
 </file>
@@ -912,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,6 +1948,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>92</v>
       </c>
@@ -2164,9 +2170,10 @@
     <hyperlink ref="A42" r:id="rId16" location="diff-7193f7df8c6f35c6f42d6f9db6deb3bf3d1a1000927552b84c901eca5b9b37e0" xr:uid="{D797A1C0-AD1D-44EC-9523-DCE63CBC652C}"/>
     <hyperlink ref="A43" r:id="rId17" location="diff-40c55730b9514e3da9867e2fbb856d7a9506c78cedd35f9c83955a83340286ad" xr:uid="{CFBAD435-50E3-49D4-9579-5F6E11506405}"/>
     <hyperlink ref="A44" r:id="rId18" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{8EBCA02C-10BC-423A-B06E-3F3D019D27BF}"/>
+    <hyperlink ref="A45" r:id="rId19" location="diff-a1d5d057c4c4b392925846d0544f8b71df64ecc2bac126f0dcee62e92c5b140c" xr:uid="{D194C6DC-B311-4431-8224-9126E506DA90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D26D19-91A8-47D9-AC70-6C8F432A6EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6B5AA-C981-452A-A8EA-4F808FF38683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="97">
   <si>
     <t>Datei</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>Implemented DCGNode ...</t>
+  </si>
+  <si>
+    <t>src\dc\bridging.py</t>
+  </si>
+  <si>
+    <t>implemented gui bridge</t>
+  </si>
+  <si>
+    <t>Created bridge to ...</t>
   </si>
 </sst>
 </file>
@@ -915,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>37</v>
@@ -1964,18 +1973,34 @@
         <v>2</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="9">
+        <v>150</v>
+      </c>
+      <c r="E46" s="16">
+        <v>2</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
@@ -2171,9 +2196,10 @@
     <hyperlink ref="A43" r:id="rId17" location="diff-40c55730b9514e3da9867e2fbb856d7a9506c78cedd35f9c83955a83340286ad" xr:uid="{CFBAD435-50E3-49D4-9579-5F6E11506405}"/>
     <hyperlink ref="A44" r:id="rId18" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{8EBCA02C-10BC-423A-B06E-3F3D019D27BF}"/>
     <hyperlink ref="A45" r:id="rId19" location="diff-a1d5d057c4c4b392925846d0544f8b71df64ecc2bac126f0dcee62e92c5b140c" xr:uid="{D194C6DC-B311-4431-8224-9126E506DA90}"/>
+    <hyperlink ref="A46" r:id="rId20" location="diff-b1624e08f33ed27deb5037a386b3a9500757381fd35710084c6f42214d280926" xr:uid="{392F4818-D897-4821-88A0-75F05F8211F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6B5AA-C981-452A-A8EA-4F808FF38683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FD0EA3-CBBA-423B-823A-86D30E10FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="94">
   <si>
     <t>Datei</t>
   </si>
@@ -340,15 +340,6 @@
   </si>
   <si>
     <t>Implemented DCGNode ...</t>
-  </si>
-  <si>
-    <t>src\dc\bridging.py</t>
-  </si>
-  <si>
-    <t>implemented gui bridge</t>
-  </si>
-  <si>
-    <t>Created bridge to ...</t>
   </si>
 </sst>
 </file>
@@ -925,7 +916,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,27 +1971,13 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="9">
-        <v>150</v>
-      </c>
-      <c r="E46" s="16">
-        <v>2</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="A46" s="15"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
@@ -2196,10 +2173,9 @@
     <hyperlink ref="A43" r:id="rId17" location="diff-40c55730b9514e3da9867e2fbb856d7a9506c78cedd35f9c83955a83340286ad" xr:uid="{CFBAD435-50E3-49D4-9579-5F6E11506405}"/>
     <hyperlink ref="A44" r:id="rId18" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{8EBCA02C-10BC-423A-B06E-3F3D019D27BF}"/>
     <hyperlink ref="A45" r:id="rId19" location="diff-a1d5d057c4c4b392925846d0544f8b71df64ecc2bac126f0dcee62e92c5b140c" xr:uid="{D194C6DC-B311-4431-8224-9126E506DA90}"/>
-    <hyperlink ref="A46" r:id="rId20" location="diff-b1624e08f33ed27deb5037a386b3a9500757381fd35710084c6f42214d280926" xr:uid="{392F4818-D897-4821-88A0-75F05F8211F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B9B66-9FB4-4EFF-9C91-4653425A9969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226D564-45B4-45B2-84CD-EDA97045007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -627,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -636,9 +635,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -647,8 +643,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -663,10 +659,990 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Arbeitsteilung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18251147713242016"/>
+          <c:y val="0.21686968859352487"/>
+          <c:w val="0.56278692831050359"/>
+          <c:h val="0.50949473637780462"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CBBA-40F3-BE11-C58CA75987A5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tätigkeitsdokumentation!$I$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>adalfarus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giesbrt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fa4953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>?????1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>?????2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tätigkeitsdokumentation!$I$101:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBBA-40F3-BE11-C58CA75987A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13610919950606462"/>
+          <c:y val="0.77675427067788183"/>
+          <c:w val="0.67956030192242523"/>
+          <c:h val="0.15006413607913668"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25282</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60080</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F27B4-28C7-F9D8-6FB9-D3CD688B1B12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,9 +1680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,26 +1715,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,26 +1750,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -984,13 +1926,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -1002,14 +1944,14 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I1" t="s">
@@ -1017,7 +1959,7 @@
       </c>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1058,14 +2000,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="6">
@@ -1080,7 +2022,7 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="I3">
         <f>MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
         <v>4</v>
@@ -1097,33 +2039,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>62</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
       <c r="I4">
         <f t="shared" ref="I4:I19" si="1">MAX(0, IF($G4=I$2, $D4*$E4, 0))</f>
         <v>124</v>
@@ -1140,24 +2082,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>70</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -1166,7 +2108,7 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="I5">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1183,33 +2125,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6">
         <v>374</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>374</v>
@@ -1226,33 +2168,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1269,33 +2211,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
       <c r="I8">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1312,33 +2254,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
       <c r="I9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1355,33 +2297,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
       <c r="I10">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1398,33 +2340,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11">
         <v>70</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1441,33 +2383,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
       <c r="I12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1484,33 +2426,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
       <c r="I13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1527,33 +2469,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
       <c r="I14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1570,24 +2512,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
@@ -1596,7 +2538,7 @@
       <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>92</v>
       </c>
       <c r="I15">
@@ -1615,25 +2557,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16">
         <v>23</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16">
         <v>2</v>
       </c>
       <c r="F16" t="s">
@@ -1642,7 +2583,7 @@
       <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="I16">
@@ -1661,25 +2602,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
@@ -1688,7 +2628,7 @@
       <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>92</v>
       </c>
       <c r="I17">
@@ -1707,34 +2647,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>58</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
       <c r="I18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1751,24 +2690,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
@@ -1777,7 +2716,7 @@
       <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
       <c r="I19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1794,33 +2733,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
       <c r="I20">
         <f t="shared" ref="I20:L35" si="2">MAX(0, IF($G20=I$2, $D20*$E20, 0))</f>
         <v>0</v>
@@ -1837,33 +2776,33 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>32</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
       <c r="I21">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1880,24 +2819,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -1906,7 +2845,7 @@
       <c r="G22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
       <c r="I22">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1923,24 +2862,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -1949,7 +2888,7 @@
       <c r="G23" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
       <c r="I23">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1966,24 +2905,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="15">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -1992,7 +2931,7 @@
       <c r="G24" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
       <c r="I24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2009,24 +2948,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -2035,7 +2974,7 @@
       <c r="G25" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
       <c r="I25">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2052,24 +2991,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -2078,7 +3017,7 @@
       <c r="G26" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
       <c r="I26">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2095,24 +3034,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="15">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -2121,7 +3060,7 @@
       <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
       <c r="I27">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2138,33 +3077,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28">
         <v>-20</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" t="s">
         <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
       <c r="I28">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2181,24 +3120,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="15">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
@@ -2207,7 +3146,7 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
       <c r="I29">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2224,33 +3163,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" t="s">
         <v>57</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
       <c r="I30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2267,33 +3206,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31">
         <v>9</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
       <c r="I31">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -2310,33 +3249,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="15">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I32">
@@ -2355,10 +3294,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M32" s="9">
-        <v>0</v>
-      </c>
-      <c r="O32" s="15"/>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2367,13 +3305,13 @@
       <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33">
         <v>56</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
@@ -2382,7 +3320,7 @@
       <c r="G33" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
       <c r="I33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2399,7 +3337,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2410,22 +3348,22 @@
       <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
       <c r="I34">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -2442,33 +3380,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35">
         <v>43</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
       <c r="I35">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2485,33 +3423,33 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
       <c r="I36">
         <f t="shared" ref="I36:L51" si="3">MAX(0, IF($G36=I$2, $D36*$E36, 0))</f>
         <v>0</v>
@@ -2528,24 +3466,24 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="15">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
@@ -2554,7 +3492,7 @@
       <c r="G37" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
       <c r="I37">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2571,33 +3509,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38">
         <v>28</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
       <c r="I38">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -2614,7 +3552,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2625,22 +3563,22 @@
       <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39">
         <v>48</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
       <c r="I39">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -2657,7 +3595,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2668,22 +3606,22 @@
       <c r="B40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40">
         <v>17</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
       <c r="I40">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2700,33 +3638,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41">
         <v>31</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
       <c r="I41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2743,33 +3681,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" t="s">
         <v>19</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
       <c r="I42">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2786,33 +3724,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43">
         <v>24</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="17"/>
+      <c r="H43" s="8"/>
       <c r="I43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2829,33 +3767,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44">
         <v>51</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
       <c r="I44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2872,33 +3810,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45">
         <v>151</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" t="s">
         <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
       <c r="I45">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -2915,33 +3853,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46">
         <v>132</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" t="s">
         <v>88</v>
       </c>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
       <c r="I46">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2958,7 +3896,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2969,22 +3907,22 @@
       <c r="B47" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47">
         <v>18</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" t="s">
         <v>88</v>
       </c>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
       <c r="I47">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3001,33 +3939,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48">
         <v>17</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" t="s">
         <v>88</v>
       </c>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
       <c r="I48">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3044,33 +3982,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49">
         <v>39</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
       <c r="I49">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3087,7 +4025,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3098,19 +4036,19 @@
       <c r="B50" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
       <c r="I50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3127,33 +4065,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>117</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51">
         <v>21</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="F51" t="s">
         <v>19</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
       <c r="I51">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3170,16 +4108,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
       <c r="I52">
         <f t="shared" ref="I52:L67" si="4">MAX(0, IF($G52=I$2, $D52*$E52, 0))</f>
         <v>0</v>
@@ -3196,16 +4131,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3222,16 +4154,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3248,16 +4177,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3274,16 +4200,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3300,16 +4223,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3326,16 +4246,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3352,16 +4269,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3378,16 +4292,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3404,16 +4315,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3430,16 +4338,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3456,16 +4361,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3482,16 +4384,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3508,16 +4407,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3534,16 +4430,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3560,16 +4453,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3586,16 +4476,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
       <c r="I68">
         <f t="shared" ref="I68:L83" si="5">MAX(0, IF($G68=I$2, $D68*$E68, 0))</f>
         <v>0</v>
@@ -3612,16 +4499,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
       <c r="I69">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3638,16 +4522,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
       <c r="I70">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3664,16 +4545,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
       <c r="I71">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3690,16 +4568,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M71" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
       <c r="I72">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3716,16 +4591,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
       <c r="I73">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3742,16 +4614,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
       <c r="I74">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3768,16 +4637,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
       <c r="I75">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3794,16 +4660,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
       <c r="I76">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3820,16 +4683,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
       <c r="I77">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3846,16 +4706,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
       <c r="I78">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3872,16 +4729,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
       <c r="I79">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3898,16 +4752,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M79" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
       <c r="I80">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3924,16 +4775,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
       <c r="I81">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3950,16 +4798,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M81" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="8"/>
       <c r="I82">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3976,16 +4821,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
       <c r="I83">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4002,16 +4844,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M83" s="9">
+      <c r="M83" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="8"/>
       <c r="I84">
         <f t="shared" ref="I84:L99" si="6">MAX(0, IF($G84=I$2, $D84*$E84, 0))</f>
         <v>0</v>
@@ -4028,16 +4867,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="8"/>
       <c r="I85">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4054,16 +4890,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="8"/>
       <c r="I86">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4080,16 +4913,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
       <c r="I87">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4106,16 +4936,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="8"/>
       <c r="I88">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4132,16 +4959,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="8"/>
       <c r="I89">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4158,16 +4982,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M89" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="8"/>
       <c r="I90">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4184,16 +5005,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M90" s="9">
+      <c r="M90" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="8"/>
       <c r="I91">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4210,16 +5028,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M91" s="9">
+      <c r="M91" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="8"/>
       <c r="I92">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4236,16 +5051,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M92" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="8"/>
       <c r="I93">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4262,16 +5074,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M93" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="8"/>
       <c r="I94">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4288,16 +5097,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="8"/>
       <c r="I95">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4314,16 +5120,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M95" s="9">
+      <c r="M95" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="8"/>
       <c r="I96">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4340,16 +5143,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="8"/>
       <c r="I97">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4366,16 +5166,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M97" s="9">
+      <c r="M97" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="8"/>
       <c r="I98">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4392,16 +5189,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="8"/>
       <c r="I99">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4418,16 +5212,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M99" s="9">
+      <c r="M99" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="8"/>
       <c r="I100">
         <f t="shared" ref="I100:L100" si="7">MAX(0, IF($G100=I$2, $D100*$E100, 0))</f>
         <v>0</v>
@@ -4444,52 +5235,52 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M100" s="9">
+      <c r="M100" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="F101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="10">
         <f>SUM(I3:I69)</f>
         <v>1188</v>
       </c>
-      <c r="J101" s="11">
+      <c r="J101" s="10">
         <f>SUM(J3:J69)</f>
         <v>862</v>
       </c>
-      <c r="K101" s="11">
+      <c r="K101" s="10">
         <f>SUM(K3:K69)</f>
         <v>316</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="10">
         <f>SUM(L3:L69)</f>
         <v>0</v>
       </c>
-      <c r="M101" s="12">
+      <c r="M101" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4524,6 +5315,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -4535,7 +5327,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226D564-45B4-45B2-84CD-EDA97045007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED47D5-1871-4B61-9C6C-4D1EA4659608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -643,8 +643,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -662,7 +662,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -724,7 +724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -760,6 +760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FA09-4BD4-AD18-DD460C3B4E8A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -775,6 +780,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FA09-4BD4-AD18-DD460C3B4E8A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -810,6 +820,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FA09-4BD4-AD18-DD460C3B4E8A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -825,6 +840,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FA09-4BD4-AD18-DD460C3B4E8A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -853,7 +873,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -991,7 +1011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1028,7 +1048,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1640,9 +1660,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1680,9 +1700,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,9 +1735,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1750,9 +1787,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1928,11 +1982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -5327,7 +5381,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED47D5-1871-4B61-9C6C-4D1EA4659608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292173C6-DF06-46CB-B9DB-EE859DA4E9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
   <si>
     <t>Datei</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>updated ui bridge</t>
+  </si>
+  <si>
+    <t>added error h...</t>
+  </si>
+  <si>
+    <t>added an end s...</t>
+  </si>
+  <si>
+    <t>moved definition</t>
   </si>
 </sst>
 </file>
@@ -935,7 +944,7 @@
                   <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>862</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1982,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,7 +4176,27 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+      <c r="A52" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
       <c r="H52" s="8"/>
       <c r="I52">
         <f t="shared" ref="I52:L67" si="4">MAX(0, IF($G52=I$2, $D52*$E52, 0))</f>
@@ -4175,7 +4204,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
@@ -4190,7 +4219,21 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
+      <c r="A53" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>34</v>
+      </c>
       <c r="H53" s="8"/>
       <c r="I53">
         <f t="shared" si="4"/>
@@ -5324,7 +5367,7 @@
       </c>
       <c r="J101" s="10">
         <f>SUM(J3:J69)</f>
-        <v>862</v>
+        <v>886</v>
       </c>
       <c r="K101" s="10">
         <f>SUM(K3:K69)</f>
@@ -5366,10 +5409,12 @@
     <hyperlink ref="A48" r:id="rId21" location="diff-2c329cbf92051c1f1943a769088e02ab9dc27e4cd1acfd64a40eb5b0e11d9f47" xr:uid="{86601FCB-693F-4AF3-8694-A92A720A3B33}"/>
     <hyperlink ref="A49" r:id="rId22" location="diff-9ae3ffe0889e8ae822cc5d6e5e0b97c0c53c176cf13fa2985fbc09a926ba205c" xr:uid="{7BAD77C8-6FFC-44E3-B725-A046ADF7D521}"/>
     <hyperlink ref="A51" r:id="rId23" location="diff-9ae3ffe0889e8ae822cc5d6e5e0b97c0c53c176cf13fa2985fbc09a926ba205c" xr:uid="{A4AACB38-876A-4D45-9828-F123E3FA412E}"/>
+    <hyperlink ref="A52" r:id="rId24" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{3C5D70A8-FC28-4613-AE59-1FB56C4A1C5A}"/>
+    <hyperlink ref="A53" r:id="rId25" xr:uid="{3B9A6651-F941-4CD5-8CE7-0EB562E9FFBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
-  <drawing r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
+++ b/meta/dudpy-planning/02 Software-Projekt Tätigkeitsdokumentation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292173C6-DF06-46CB-B9DB-EE859DA4E9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8AA1-1ADD-4527-BE92-BB3E0F005A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -671,7 +671,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -733,7 +733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -882,7 +882,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1020,7 +1020,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1634,11 +1634,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>25282</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>45354</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60080</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>8793</xdr:rowOff>
     </xdr:to>
@@ -1669,9 +1669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1709,9 +1709,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1744,26 +1744,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1796,26 +1779,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1991,11 +1957,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -5426,7 +5392,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
